--- a/Documentation/twoCubeWBS.xlsx
+++ b/Documentation/twoCubeWBS.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="220" windowWidth="20720" windowHeight="17180"/>
+    <workbookView xWindow="1275" yWindow="225" windowWidth="20715" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -77,33 +77,6 @@
     <t>all classes/codes/scripts  (eg arrange by MVC)</t>
   </si>
   <si>
-    <t>june</t>
-  </si>
-  <si>
-    <t>jia de</t>
-  </si>
-  <si>
-    <t>wesley</t>
-  </si>
-  <si>
-    <t>weileng</t>
-  </si>
-  <si>
-    <t>xuai</t>
-  </si>
-  <si>
-    <t>sri</t>
-  </si>
-  <si>
-    <t>tiffany</t>
-  </si>
-  <si>
-    <t>limguan</t>
-  </si>
-  <si>
-    <t>hong jing</t>
-  </si>
-  <si>
     <t>Entities.*</t>
   </si>
   <si>
@@ -141,6 +114,33 @@
   </si>
   <si>
     <t>SurveyResults.asmx</t>
+  </si>
+  <si>
+    <t>Cheok Jia De</t>
+  </si>
+  <si>
+    <t>June Quak Ren Feng</t>
+  </si>
+  <si>
+    <t>Wesley Djingga</t>
+  </si>
+  <si>
+    <t>Peh Weileng</t>
+  </si>
+  <si>
+    <t>Xu Ai</t>
+  </si>
+  <si>
+    <t>Sri Hartati</t>
+  </si>
+  <si>
+    <t>Chen Yuhui, Tiffany</t>
+  </si>
+  <si>
+    <t>Khok Hong Jing</t>
+  </si>
+  <si>
+    <t>Lim Guan</t>
   </si>
 </sst>
 </file>
@@ -427,6 +427,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -717,20 +722,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CH22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G6" workbookViewId="0">
-      <selection activeCell="W17" sqref="W17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.5" customWidth="1"/>
-    <col min="8" max="18" width="8.83203125" style="1"/>
-    <col min="19" max="19" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="8" max="18" width="8.85546875" style="1"/>
+    <col min="19" max="19" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:86" ht="57.75" customHeight="1">
+    <row r="1" spans="1:86" ht="57.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B1" s="16" t="s">
         <v>14</v>
       </c>
@@ -740,7 +745,7 @@
       <c r="F1" s="16"/>
       <c r="G1" s="16"/>
     </row>
-    <row r="2" spans="1:86" ht="20.25" customHeight="1">
+    <row r="2" spans="1:86" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
@@ -748,23 +753,23 @@
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
     </row>
-    <row r="3" spans="1:86">
+    <row r="3" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:86">
+    <row r="4" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:86">
+    <row r="5" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="3"/>
     </row>
-    <row r="6" spans="1:86" s="20" customFormat="1">
+    <row r="6" spans="1:86" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
@@ -778,7 +783,7 @@
       <c r="Q6" s="21"/>
       <c r="R6" s="21"/>
     </row>
-    <row r="7" spans="1:86" ht="42">
+    <row r="7" spans="1:86" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>0</v>
       </c>
@@ -798,43 +803,43 @@
         <v>5</v>
       </c>
       <c r="G7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="P7" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="Q7" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="22" t="s">
+      <c r="R7" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="22" t="s">
+      <c r="S7" s="10" t="s">
         <v>30</v>
-      </c>
-      <c r="K7" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="L7" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="M7" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="N7" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="O7" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="P7" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q7" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="R7" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="S7" s="10" t="s">
-        <v>39</v>
       </c>
       <c r="T7" s="11" t="s">
         <v>8</v>
@@ -912,9 +917,9 @@
       <c r="CG7" s="1"/>
       <c r="CH7" s="1"/>
     </row>
-    <row r="8" spans="1:86">
+    <row r="8" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B8" s="4">
         <v>11</v>
@@ -966,7 +971,7 @@
         <v>100</v>
       </c>
       <c r="S8" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T8" s="4">
         <v>100</v>
@@ -981,9 +986,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:86">
+    <row r="9" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B9" s="4">
         <v>12</v>
@@ -1050,9 +1055,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:86">
+    <row r="10" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B10" s="4">
         <v>11</v>
@@ -1119,9 +1124,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:86">
+    <row r="11" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B11" s="4">
         <v>11</v>
@@ -1188,9 +1193,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:86">
+    <row r="12" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B12" s="4">
         <v>11</v>
@@ -1216,7 +1221,9 @@
       <c r="I12" s="23">
         <v>0</v>
       </c>
-      <c r="J12" s="23"/>
+      <c r="J12" s="23">
+        <v>30</v>
+      </c>
       <c r="K12" s="26">
         <v>0</v>
       </c>
@@ -1257,9 +1264,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:86">
+    <row r="13" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B13" s="4">
         <v>11</v>
@@ -1311,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="S13" s="4">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="T13" s="4">
         <v>0</v>
@@ -1326,9 +1333,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:86">
+    <row r="14" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B14" s="4">
         <v>11</v>
@@ -1380,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="S14" s="4">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="T14" s="4">
         <v>0</v>
@@ -1395,9 +1402,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:86">
-      <c r="A15" s="12" t="s">
-        <v>26</v>
+    <row r="15" spans="1:86" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="B15" s="12">
         <v>11</v>
@@ -1423,7 +1430,9 @@
       <c r="I15" s="23">
         <v>0</v>
       </c>
-      <c r="J15" s="24"/>
+      <c r="J15" s="24">
+        <v>40</v>
+      </c>
       <c r="K15" s="26">
         <v>0</v>
       </c>
@@ -1464,9 +1473,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:86" ht="15" thickBot="1">
-      <c r="A16" s="12" t="s">
-        <v>25</v>
+    <row r="16" spans="1:86" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="B16" s="12">
         <v>11</v>
@@ -1492,7 +1501,9 @@
       <c r="I16" s="23">
         <v>0</v>
       </c>
-      <c r="J16" s="24"/>
+      <c r="J16" s="24">
+        <v>30</v>
+      </c>
       <c r="K16" s="26">
         <v>0</v>
       </c>
@@ -1533,7 +1544,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="15" thickBot="1">
+    <row r="17" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
         <v>13</v>
       </c>
@@ -1571,7 +1582,7 @@
       </c>
       <c r="J17" s="25">
         <f t="shared" ref="J17:N17" si="1">SUM(J8:J16)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K17" s="25">
         <f t="shared" si="1"/>
@@ -1626,20 +1637,20 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>16</v>
       </c>
@@ -1648,7 +1659,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1663,7 +1674,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1680,7 +1691,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
